--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2721.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2721.xlsx
@@ -354,7 +354,7 @@
         <v>2.401953948949548</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.360118281321582</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2721.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2721.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166052632816727</v>
+        <v>0.9570517539978027</v>
       </c>
       <c r="B1">
-        <v>2.401953948949548</v>
+        <v>1.661927342414856</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.302589416503906</v>
       </c>
       <c r="D1">
-        <v>2.360118281321582</v>
+        <v>2.619236946105957</v>
       </c>
       <c r="E1">
-        <v>1.213648994545663</v>
+        <v>0.3567759394645691</v>
       </c>
     </row>
   </sheetData>
